--- a/pred_ohlcv/54/2019-10-11 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-11 STEEM ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" t="n">
         <v>215</v>
@@ -420,12 +425,15 @@
         <v>214</v>
       </c>
       <c r="F2" t="n">
-        <v>22333.0335</v>
+        <v>26730.9688</v>
       </c>
       <c r="G2" t="n">
-        <v>211.0166666666667</v>
+        <v>210.9</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>215</v>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D3" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F3" t="n">
-        <v>11998.4044</v>
+        <v>22333.0335</v>
       </c>
       <c r="G3" t="n">
-        <v>211.1</v>
+        <v>211.0166666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>215</v>
       </c>
       <c r="C4" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D4" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E4" t="n">
         <v>215</v>
       </c>
       <c r="F4" t="n">
-        <v>2429.6142</v>
+        <v>11998.4044</v>
       </c>
       <c r="G4" t="n">
-        <v>211.1833333333333</v>
+        <v>211.1</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>215</v>
       </c>
       <c r="C5" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D5" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E5" t="n">
         <v>215</v>
       </c>
       <c r="F5" t="n">
-        <v>1822.3344</v>
+        <v>2429.6142</v>
       </c>
       <c r="G5" t="n">
-        <v>211.3166666666667</v>
+        <v>211.1833333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,25 +529,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>215</v>
+      </c>
+      <c r="C6" t="n">
         <v>217</v>
       </c>
-      <c r="C6" t="n">
-        <v>218</v>
-      </c>
       <c r="D6" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F6" t="n">
-        <v>2584.8961</v>
+        <v>1822.3344</v>
       </c>
       <c r="G6" t="n">
-        <v>211.4333333333333</v>
+        <v>211.3166666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -541,22 +561,25 @@
         <v>217</v>
       </c>
       <c r="C7" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D7" t="n">
+        <v>218</v>
+      </c>
+      <c r="E7" t="n">
         <v>217</v>
       </c>
-      <c r="E7" t="n">
-        <v>214</v>
-      </c>
       <c r="F7" t="n">
-        <v>9567.189</v>
+        <v>2584.8961</v>
       </c>
       <c r="G7" t="n">
-        <v>211.4833333333333</v>
+        <v>211.4333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -564,25 +587,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D8" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>9567.189</v>
       </c>
       <c r="G8" t="n">
-        <v>211.6</v>
+        <v>211.4833333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -590,25 +616,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C9" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D9" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E9" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F9" t="n">
-        <v>20701.4924</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>211.6333333333333</v>
+        <v>211.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -616,25 +645,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C10" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E10" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" t="n">
-        <v>3550.9938</v>
+        <v>20701.4924</v>
       </c>
       <c r="G10" t="n">
-        <v>211.7</v>
+        <v>211.6333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -642,25 +674,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E11" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F11" t="n">
-        <v>788.6555</v>
+        <v>3550.9938</v>
       </c>
       <c r="G11" t="n">
-        <v>211.75</v>
+        <v>211.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -674,19 +709,22 @@
         <v>215</v>
       </c>
       <c r="D12" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E12" t="n">
         <v>215</v>
       </c>
       <c r="F12" t="n">
-        <v>751.4577</v>
+        <v>788.6555</v>
       </c>
       <c r="G12" t="n">
-        <v>211.8333333333333</v>
+        <v>211.75</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C13" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D13" t="n">
         <v>217</v>
       </c>
       <c r="E13" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>751.4577</v>
       </c>
       <c r="G13" t="n">
-        <v>211.95</v>
+        <v>211.8333333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,25 +761,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C14" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D14" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E14" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F14" t="n">
-        <v>260.8666</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>212.0333333333333</v>
+        <v>211.95</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C15" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D15" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E15" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>260.8666</v>
       </c>
       <c r="G15" t="n">
-        <v>212.1666666666667</v>
+        <v>212.0333333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C16" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D16" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E16" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F16" t="n">
-        <v>381.7739</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>212.2833333333333</v>
+        <v>212.1666666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D17" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E17" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>381.7739</v>
       </c>
       <c r="G17" t="n">
-        <v>212.3833333333333</v>
+        <v>212.2833333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C18" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D18" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E18" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F18" t="n">
-        <v>192.6248</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="n">
-        <v>212.5333333333333</v>
+        <v>212.3833333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,22 +909,25 @@
         <v>216</v>
       </c>
       <c r="C19" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D19" t="n">
+        <v>217</v>
+      </c>
+      <c r="E19" t="n">
         <v>216</v>
       </c>
-      <c r="E19" t="n">
-        <v>215</v>
-      </c>
       <c r="F19" t="n">
-        <v>4536.7876</v>
+        <v>192.6248</v>
       </c>
       <c r="G19" t="n">
-        <v>212.65</v>
+        <v>212.5333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -876,25 +935,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D20" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>4536.7876</v>
       </c>
       <c r="G20" t="n">
-        <v>212.7666666666667</v>
+        <v>212.65</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -914,13 +976,16 @@
         <v>217</v>
       </c>
       <c r="F21" t="n">
-        <v>12649.7027</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>212.9</v>
+        <v>212.7666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -931,22 +996,25 @@
         <v>217</v>
       </c>
       <c r="C22" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E22" t="n">
         <v>217</v>
       </c>
       <c r="F22" t="n">
-        <v>30148.7778</v>
+        <v>12649.7027</v>
       </c>
       <c r="G22" t="n">
-        <v>213.0166666666667</v>
+        <v>212.9</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -954,25 +1022,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F23" t="n">
-        <v>8557.853800000001</v>
+        <v>30148.7778</v>
       </c>
       <c r="G23" t="n">
-        <v>213.15</v>
+        <v>213.0166666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -983,21 +1054,24 @@
         <v>219</v>
       </c>
       <c r="C24" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E24" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F24" t="n">
-        <v>15104.0125</v>
+        <v>8557.853800000001</v>
       </c>
       <c r="G24" t="n">
-        <v>213.3166666666667</v>
+        <v>213.15</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C25" t="n">
         <v>220</v>
@@ -1018,12 +1092,15 @@
         <v>217</v>
       </c>
       <c r="F25" t="n">
-        <v>11338.6294</v>
+        <v>15104.0125</v>
       </c>
       <c r="G25" t="n">
-        <v>213.4833333333333</v>
+        <v>213.3166666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C26" t="n">
         <v>220</v>
@@ -1041,15 +1118,18 @@
         <v>220</v>
       </c>
       <c r="E26" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F26" t="n">
-        <v>2586.4717</v>
+        <v>11338.6294</v>
       </c>
       <c r="G26" t="n">
-        <v>213.65</v>
+        <v>213.4833333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D27" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E27" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F27" t="n">
-        <v>5739.0563</v>
+        <v>2586.4717</v>
       </c>
       <c r="G27" t="n">
-        <v>213.85</v>
+        <v>213.65</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C28" t="n">
         <v>222</v>
       </c>
       <c r="D28" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E28" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F28" t="n">
-        <v>942.1691</v>
+        <v>5739.0563</v>
       </c>
       <c r="G28" t="n">
-        <v>214.05</v>
+        <v>213.85</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C29" t="n">
         <v>222</v>
       </c>
       <c r="D29" t="n">
+        <v>223</v>
+      </c>
+      <c r="E29" t="n">
         <v>222</v>
       </c>
-      <c r="E29" t="n">
-        <v>220</v>
-      </c>
       <c r="F29" t="n">
-        <v>3250</v>
+        <v>942.1691</v>
       </c>
       <c r="G29" t="n">
-        <v>214.2333333333333</v>
+        <v>214.05</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C30" t="n">
         <v>222</v>
       </c>
       <c r="D30" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E30" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F30" t="n">
-        <v>9552.8735</v>
+        <v>3250</v>
       </c>
       <c r="G30" t="n">
-        <v>214.4333333333333</v>
+        <v>214.2333333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>222</v>
       </c>
       <c r="C31" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" t="n">
         <v>223</v>
       </c>
       <c r="E31" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F31" t="n">
-        <v>17002.9976</v>
+        <v>9552.8735</v>
       </c>
       <c r="G31" t="n">
-        <v>214.6333333333333</v>
+        <v>214.4333333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>222</v>
       </c>
       <c r="C32" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D32" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E32" t="n">
         <v>222</v>
       </c>
       <c r="F32" t="n">
-        <v>8349.4501</v>
+        <v>17002.9976</v>
       </c>
       <c r="G32" t="n">
-        <v>214.8166666666667</v>
+        <v>214.6333333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>222</v>
       </c>
       <c r="F33" t="n">
-        <v>16497.7342</v>
+        <v>8349.4501</v>
       </c>
       <c r="G33" t="n">
-        <v>214.9833333333333</v>
+        <v>214.8166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>222</v>
       </c>
       <c r="F34" t="n">
-        <v>2437.8062</v>
+        <v>16497.7342</v>
       </c>
       <c r="G34" t="n">
-        <v>215.1833333333333</v>
+        <v>214.9833333333333</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C35" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D35" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E35" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F35" t="n">
-        <v>2463.4796</v>
+        <v>2437.8062</v>
       </c>
       <c r="G35" t="n">
-        <v>215.3666666666667</v>
+        <v>215.1833333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C36" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D36" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E36" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F36" t="n">
-        <v>1173.4629</v>
+        <v>2463.4796</v>
       </c>
       <c r="G36" t="n">
-        <v>215.4666666666667</v>
+        <v>215.3666666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1321,21 +1431,24 @@
         <v>220</v>
       </c>
       <c r="C37" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D37" t="n">
         <v>220</v>
       </c>
       <c r="E37" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F37" t="n">
-        <v>5192.8251</v>
+        <v>1173.4629</v>
       </c>
       <c r="G37" t="n">
-        <v>215.5833333333333</v>
+        <v>215.4666666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1353,15 +1466,18 @@
         <v>220</v>
       </c>
       <c r="E38" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F38" t="n">
-        <v>7375.8131</v>
+        <v>5192.8251</v>
       </c>
       <c r="G38" t="n">
-        <v>215.7333333333333</v>
+        <v>215.5833333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C39" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D39" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E39" t="n">
         <v>218</v>
       </c>
       <c r="F39" t="n">
-        <v>15749.7514</v>
+        <v>7375.8131</v>
       </c>
       <c r="G39" t="n">
-        <v>215.85</v>
+        <v>215.7333333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>218</v>
       </c>
       <c r="C40" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D40" t="n">
         <v>218</v>
       </c>
       <c r="E40" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F40" t="n">
-        <v>3537.1907</v>
+        <v>15749.7514</v>
       </c>
       <c r="G40" t="n">
-        <v>215.95</v>
+        <v>215.85</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C41" t="n">
         <v>217</v>
       </c>
       <c r="D41" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E41" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F41" t="n">
-        <v>449.5313</v>
+        <v>3537.1907</v>
       </c>
       <c r="G41" t="n">
-        <v>216.0333333333333</v>
+        <v>215.95</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C42" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D42" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E42" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F42" t="n">
-        <v>2671.549</v>
+        <v>449.5313</v>
       </c>
       <c r="G42" t="n">
-        <v>216.15</v>
+        <v>216.0333333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>216</v>
+      </c>
+      <c r="C43" t="n">
         <v>218</v>
-      </c>
-      <c r="C43" t="n">
-        <v>217</v>
       </c>
       <c r="D43" t="n">
         <v>218</v>
       </c>
       <c r="E43" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F43" t="n">
-        <v>13089.7194</v>
+        <v>2671.549</v>
       </c>
       <c r="G43" t="n">
-        <v>216.25</v>
+        <v>216.15</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C44" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D44" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E44" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F44" t="n">
-        <v>1048</v>
+        <v>13089.7194</v>
       </c>
       <c r="G44" t="n">
-        <v>216.45</v>
+        <v>216.25</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>220</v>
       </c>
       <c r="F45" t="n">
-        <v>4.1954</v>
+        <v>1048</v>
       </c>
       <c r="G45" t="n">
-        <v>216.6</v>
+        <v>216.45</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C46" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D46" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E46" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F46" t="n">
-        <v>1043.8046</v>
+        <v>4.1954</v>
       </c>
       <c r="G46" t="n">
-        <v>216.7</v>
+        <v>216.6</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,21 +1721,24 @@
         <v>218</v>
       </c>
       <c r="C47" t="n">
+        <v>217</v>
+      </c>
+      <c r="D47" t="n">
         <v>218</v>
       </c>
-      <c r="D47" t="n">
-        <v>219</v>
-      </c>
       <c r="E47" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F47" t="n">
-        <v>17951.3027</v>
+        <v>1043.8046</v>
       </c>
       <c r="G47" t="n">
-        <v>216.8</v>
+        <v>216.7</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>218</v>
+      </c>
+      <c r="C48" t="n">
+        <v>218</v>
+      </c>
+      <c r="D48" t="n">
         <v>219</v>
       </c>
-      <c r="C48" t="n">
-        <v>221</v>
-      </c>
-      <c r="D48" t="n">
-        <v>221</v>
-      </c>
       <c r="E48" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F48" t="n">
-        <v>3611.1001</v>
+        <v>17951.3027</v>
       </c>
       <c r="G48" t="n">
-        <v>216.95</v>
+        <v>216.8</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>219</v>
+      </c>
+      <c r="C49" t="n">
         <v>221</v>
       </c>
-      <c r="C49" t="n">
-        <v>224</v>
-      </c>
       <c r="D49" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E49" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F49" t="n">
-        <v>19984.8818</v>
+        <v>3611.1001</v>
       </c>
       <c r="G49" t="n">
-        <v>217.15</v>
+        <v>216.95</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>221</v>
+      </c>
+      <c r="C50" t="n">
         <v>224</v>
       </c>
-      <c r="C50" t="n">
-        <v>228</v>
-      </c>
       <c r="D50" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E50" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F50" t="n">
-        <v>31374.73811101</v>
+        <v>19984.8818</v>
       </c>
       <c r="G50" t="n">
-        <v>217.4333333333333</v>
+        <v>217.15</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,7 +1834,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C51" t="n">
         <v>228</v>
@@ -1691,15 +1843,18 @@
         <v>228</v>
       </c>
       <c r="E51" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F51" t="n">
-        <v>3277.07938899</v>
+        <v>31374.73811101</v>
       </c>
       <c r="G51" t="n">
-        <v>217.7</v>
+        <v>217.4333333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C52" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D52" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E52" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F52" t="n">
-        <v>18168.7189</v>
+        <v>3277.07938899</v>
       </c>
       <c r="G52" t="n">
-        <v>218</v>
+        <v>217.7</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>229</v>
+      </c>
+      <c r="C53" t="n">
         <v>230</v>
       </c>
-      <c r="C53" t="n">
-        <v>235</v>
-      </c>
       <c r="D53" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E53" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F53" t="n">
-        <v>43993.08944723</v>
+        <v>18168.7189</v>
       </c>
       <c r="G53" t="n">
-        <v>218.3833333333333</v>
+        <v>218</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,7 +1921,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C54" t="n">
         <v>235</v>
@@ -1769,15 +1930,18 @@
         <v>235</v>
       </c>
       <c r="E54" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F54" t="n">
-        <v>3593.0838</v>
+        <v>43993.08944723</v>
       </c>
       <c r="G54" t="n">
-        <v>218.7833333333333</v>
+        <v>218.3833333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,25 +1950,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>233</v>
+      </c>
+      <c r="C55" t="n">
         <v>235</v>
       </c>
-      <c r="C55" t="n">
-        <v>234</v>
-      </c>
       <c r="D55" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E55" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F55" t="n">
-        <v>31665.9696</v>
+        <v>3593.0838</v>
       </c>
       <c r="G55" t="n">
-        <v>219.1333333333333</v>
+        <v>218.7833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1812,25 +1979,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C56" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D56" t="n">
+        <v>237</v>
+      </c>
+      <c r="E56" t="n">
         <v>234</v>
       </c>
-      <c r="E56" t="n">
-        <v>230</v>
-      </c>
       <c r="F56" t="n">
-        <v>19542.2813</v>
+        <v>31665.9696</v>
       </c>
       <c r="G56" t="n">
-        <v>219.4166666666667</v>
+        <v>219.1333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1838,25 +2008,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>233</v>
+      </c>
+      <c r="C57" t="n">
         <v>230</v>
       </c>
-      <c r="C57" t="n">
-        <v>227</v>
-      </c>
       <c r="D57" t="n">
+        <v>234</v>
+      </c>
+      <c r="E57" t="n">
         <v>230</v>
       </c>
-      <c r="E57" t="n">
-        <v>227</v>
-      </c>
       <c r="F57" t="n">
-        <v>18444.1365</v>
+        <v>19542.2813</v>
       </c>
       <c r="G57" t="n">
-        <v>219.65</v>
+        <v>219.4166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>230</v>
+      </c>
+      <c r="C58" t="n">
         <v>227</v>
       </c>
-      <c r="C58" t="n">
-        <v>228</v>
-      </c>
       <c r="D58" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E58" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F58" t="n">
-        <v>6898.9108</v>
+        <v>18444.1365</v>
       </c>
       <c r="G58" t="n">
-        <v>219.8833333333333</v>
+        <v>219.65</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C59" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D59" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E59" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F59" t="n">
-        <v>9184.158100000001</v>
+        <v>6898.9108</v>
       </c>
       <c r="G59" t="n">
-        <v>220.0666666666667</v>
+        <v>219.8833333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,10 +2095,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C60" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D60" t="n">
         <v>229</v>
@@ -1928,12 +2107,15 @@
         <v>225</v>
       </c>
       <c r="F60" t="n">
-        <v>27232.4983</v>
+        <v>9184.158100000001</v>
       </c>
       <c r="G60" t="n">
-        <v>220.2833333333333</v>
+        <v>220.0666666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1948,18 +2130,21 @@
         <v>227</v>
       </c>
       <c r="D61" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E61" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F61" t="n">
-        <v>4627.456</v>
+        <v>27232.4983</v>
       </c>
       <c r="G61" t="n">
-        <v>220.4833333333333</v>
+        <v>220.2833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>226</v>
       </c>
       <c r="C62" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D62" t="n">
+        <v>227</v>
+      </c>
+      <c r="E62" t="n">
         <v>226</v>
       </c>
-      <c r="E62" t="n">
-        <v>225</v>
-      </c>
       <c r="F62" t="n">
-        <v>4504.998</v>
+        <v>4627.456</v>
       </c>
       <c r="G62" t="n">
-        <v>220.65</v>
+        <v>220.4833333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C63" t="n">
         <v>225</v>
       </c>
       <c r="D63" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E63" t="n">
         <v>225</v>
       </c>
       <c r="F63" t="n">
-        <v>687.48888888</v>
+        <v>4504.998</v>
       </c>
       <c r="G63" t="n">
-        <v>220.8</v>
+        <v>220.65</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>225</v>
       </c>
       <c r="F64" t="n">
-        <v>725.7155</v>
+        <v>687.48888888</v>
       </c>
       <c r="G64" t="n">
-        <v>220.9666666666667</v>
+        <v>220.8</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>225</v>
       </c>
       <c r="C65" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D65" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E65" t="n">
         <v>225</v>
       </c>
       <c r="F65" t="n">
-        <v>9094.591311120001</v>
+        <v>725.7155</v>
       </c>
       <c r="G65" t="n">
-        <v>221.1333333333333</v>
+        <v>220.9666666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>225</v>
+      </c>
+      <c r="C66" t="n">
         <v>227</v>
       </c>
-      <c r="C66" t="n">
-        <v>230</v>
-      </c>
       <c r="D66" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E66" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F66" t="n">
-        <v>10488.02194739</v>
+        <v>9094.591311120001</v>
       </c>
       <c r="G66" t="n">
-        <v>221.3333333333333</v>
+        <v>221.1333333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,7 +2298,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C67" t="n">
         <v>230</v>
@@ -2107,15 +2307,18 @@
         <v>230</v>
       </c>
       <c r="E67" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F67" t="n">
-        <v>1376.7565</v>
+        <v>10488.02194739</v>
       </c>
       <c r="G67" t="n">
-        <v>221.6</v>
+        <v>221.3333333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>230</v>
       </c>
       <c r="C68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D68" t="n">
         <v>230</v>
       </c>
       <c r="E68" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F68" t="n">
-        <v>7555.748</v>
+        <v>1376.7565</v>
       </c>
       <c r="G68" t="n">
-        <v>221.7666666666667</v>
+        <v>221.6</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C69" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D69" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E69" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F69" t="n">
-        <v>55.459</v>
+        <v>7555.748</v>
       </c>
       <c r="G69" t="n">
-        <v>222.0333333333333</v>
+        <v>221.7666666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,21 +2388,24 @@
         <v>229</v>
       </c>
       <c r="C70" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D70" t="n">
         <v>229</v>
       </c>
       <c r="E70" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F70" t="n">
-        <v>10000</v>
+        <v>55.459</v>
       </c>
       <c r="G70" t="n">
-        <v>222.2666666666667</v>
+        <v>222.0333333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>229</v>
       </c>
       <c r="C71" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D71" t="n">
         <v>229</v>
       </c>
       <c r="E71" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
       <c r="G71" t="n">
-        <v>222.5</v>
+        <v>222.2666666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>229</v>
       </c>
       <c r="F72" t="n">
-        <v>246.6145</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>222.7333333333333</v>
+        <v>222.5</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C73" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D73" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E73" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F73" t="n">
-        <v>16857.2353</v>
+        <v>246.6145</v>
       </c>
       <c r="G73" t="n">
-        <v>222.95</v>
+        <v>222.7333333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C74" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D74" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E74" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F74" t="n">
-        <v>15781.1913</v>
+        <v>16857.2353</v>
       </c>
       <c r="G74" t="n">
-        <v>223.2</v>
+        <v>222.95</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>229</v>
       </c>
       <c r="F75" t="n">
-        <v>1042.2541</v>
+        <v>15781.1913</v>
       </c>
       <c r="G75" t="n">
-        <v>223.4</v>
+        <v>223.2</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>229</v>
       </c>
       <c r="C76" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D76" t="n">
         <v>229</v>
       </c>
       <c r="E76" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F76" t="n">
-        <v>5630.6159</v>
+        <v>1042.2541</v>
       </c>
       <c r="G76" t="n">
-        <v>223.5666666666667</v>
+        <v>223.4</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C77" t="n">
         <v>226</v>
       </c>
       <c r="D77" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E77" t="n">
         <v>226</v>
       </c>
       <c r="F77" t="n">
-        <v>3784.47632982</v>
+        <v>5630.6159</v>
       </c>
       <c r="G77" t="n">
-        <v>223.75</v>
+        <v>223.5666666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>228</v>
+      </c>
+      <c r="C78" t="n">
         <v>226</v>
       </c>
-      <c r="C78" t="n">
-        <v>225</v>
-      </c>
       <c r="D78" t="n">
+        <v>228</v>
+      </c>
+      <c r="E78" t="n">
         <v>226</v>
       </c>
-      <c r="E78" t="n">
-        <v>225</v>
-      </c>
       <c r="F78" t="n">
-        <v>18018.25138888</v>
+        <v>3784.47632982</v>
       </c>
       <c r="G78" t="n">
-        <v>223.8833333333333</v>
+        <v>223.75</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C79" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D79" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E79" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F79" t="n">
-        <v>21859.0739</v>
+        <v>18018.25138888</v>
       </c>
       <c r="G79" t="n">
-        <v>223.9166666666667</v>
+        <v>223.8833333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C80" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D80" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E80" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F80" t="n">
-        <v>60.1987</v>
+        <v>21859.0739</v>
       </c>
       <c r="G80" t="n">
-        <v>224.0333333333333</v>
+        <v>223.9166666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C81" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D81" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E81" t="n">
         <v>220</v>
       </c>
       <c r="F81" t="n">
-        <v>1970.2307</v>
+        <v>60.1987</v>
       </c>
       <c r="G81" t="n">
-        <v>224.0833333333333</v>
+        <v>224.0333333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>223</v>
       </c>
       <c r="C82" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D82" t="n">
         <v>223</v>
       </c>
       <c r="E82" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F82" t="n">
-        <v>6</v>
+        <v>1970.2307</v>
       </c>
       <c r="G82" t="n">
-        <v>224.1666666666667</v>
+        <v>224.0833333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C83" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D83" t="n">
         <v>223</v>
       </c>
       <c r="E83" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F83" t="n">
-        <v>4132.0493</v>
+        <v>6</v>
       </c>
       <c r="G83" t="n">
-        <v>224.2166666666667</v>
+        <v>224.1666666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,21 +2794,24 @@
         <v>222</v>
       </c>
       <c r="C84" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D84" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E84" t="n">
         <v>222</v>
       </c>
       <c r="F84" t="n">
-        <v>5.6763</v>
+        <v>4132.0493</v>
       </c>
       <c r="G84" t="n">
-        <v>224.2833333333333</v>
+        <v>224.2166666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2820,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C85" t="n">
         <v>224</v>
@@ -2575,15 +2829,18 @@
         <v>224</v>
       </c>
       <c r="E85" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F85" t="n">
-        <v>3030.3807</v>
+        <v>5.6763</v>
       </c>
       <c r="G85" t="n">
-        <v>224.35</v>
+        <v>224.2833333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C86" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D86" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E86" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>3030.3807</v>
       </c>
       <c r="G86" t="n">
-        <v>224.4333333333333</v>
+        <v>224.35</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C87" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D87" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E87" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F87" t="n">
-        <v>4528.9183</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>224.4666666666667</v>
+        <v>224.4333333333333</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C88" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D88" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E88" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F88" t="n">
-        <v>4175.2343</v>
+        <v>4528.9183</v>
       </c>
       <c r="G88" t="n">
-        <v>224.4833333333333</v>
+        <v>224.4666666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2673,21 +2939,24 @@
         <v>223</v>
       </c>
       <c r="C89" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D89" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E89" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F89" t="n">
-        <v>19861.9056</v>
+        <v>4175.2343</v>
       </c>
       <c r="G89" t="n">
-        <v>224.4666666666667</v>
+        <v>224.4833333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C90" t="n">
         <v>221</v>
       </c>
       <c r="D90" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E90" t="n">
         <v>221</v>
       </c>
       <c r="F90" t="n">
-        <v>562.7921</v>
+        <v>19861.9056</v>
       </c>
       <c r="G90" t="n">
-        <v>224.45</v>
+        <v>224.4666666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C91" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D91" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E91" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F91" t="n">
-        <v>13733.5232</v>
+        <v>562.7921</v>
       </c>
       <c r="G91" t="n">
-        <v>224.4</v>
+        <v>224.45</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C92" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D92" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E92" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F92" t="n">
-        <v>13360.821</v>
+        <v>13733.5232</v>
       </c>
       <c r="G92" t="n">
-        <v>224.3333333333333</v>
+        <v>224.4</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,21 +3055,24 @@
         <v>218</v>
       </c>
       <c r="C93" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D93" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E93" t="n">
         <v>218</v>
       </c>
       <c r="F93" t="n">
-        <v>2263.1167</v>
+        <v>13360.821</v>
       </c>
       <c r="G93" t="n">
-        <v>224.2833333333333</v>
+        <v>224.3333333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,7 +3081,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C94" t="n">
         <v>219</v>
@@ -2812,12 +3093,15 @@
         <v>218</v>
       </c>
       <c r="F94" t="n">
-        <v>4948.40391004</v>
+        <v>2263.1167</v>
       </c>
       <c r="G94" t="n">
-        <v>224.2333333333333</v>
+        <v>224.2833333333333</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,7 +3113,7 @@
         <v>219</v>
       </c>
       <c r="C95" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D95" t="n">
         <v>219</v>
@@ -2838,12 +3122,15 @@
         <v>218</v>
       </c>
       <c r="F95" t="n">
-        <v>13775.4287</v>
+        <v>4948.40391004</v>
       </c>
       <c r="G95" t="n">
-        <v>224.1833333333333</v>
+        <v>224.2333333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>219</v>
+      </c>
+      <c r="C96" t="n">
         <v>218</v>
-      </c>
-      <c r="C96" t="n">
-        <v>219</v>
       </c>
       <c r="D96" t="n">
         <v>219</v>
       </c>
       <c r="E96" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F96" t="n">
-        <v>45781.5958</v>
+        <v>13775.4287</v>
       </c>
       <c r="G96" t="n">
-        <v>224.2</v>
+        <v>224.1833333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C97" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D97" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E97" t="n">
         <v>217</v>
       </c>
       <c r="F97" t="n">
-        <v>8950.6005</v>
+        <v>45781.5958</v>
       </c>
       <c r="G97" t="n">
-        <v>224.15</v>
+        <v>224.2</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>217</v>
       </c>
       <c r="C98" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D98" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E98" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F98" t="n">
-        <v>9988.742</v>
+        <v>8950.6005</v>
       </c>
       <c r="G98" t="n">
-        <v>224.1333333333333</v>
+        <v>224.15</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>217</v>
+      </c>
+      <c r="C99" t="n">
+        <v>219</v>
+      </c>
+      <c r="D99" t="n">
+        <v>219</v>
+      </c>
+      <c r="E99" t="n">
         <v>216</v>
       </c>
-      <c r="C99" t="n">
-        <v>215</v>
-      </c>
-      <c r="D99" t="n">
-        <v>216</v>
-      </c>
-      <c r="E99" t="n">
-        <v>215</v>
-      </c>
       <c r="F99" t="n">
-        <v>8111.8872</v>
+        <v>9988.742</v>
       </c>
       <c r="G99" t="n">
-        <v>224.0833333333333</v>
+        <v>224.1333333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>216</v>
+      </c>
+      <c r="C100" t="n">
         <v>215</v>
       </c>
-      <c r="C100" t="n">
-        <v>210</v>
-      </c>
       <c r="D100" t="n">
+        <v>216</v>
+      </c>
+      <c r="E100" t="n">
         <v>215</v>
       </c>
-      <c r="E100" t="n">
-        <v>210</v>
-      </c>
       <c r="F100" t="n">
-        <v>17305.0062</v>
+        <v>8111.8872</v>
       </c>
       <c r="G100" t="n">
-        <v>223.9666666666667</v>
+        <v>224.0833333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C101" t="n">
         <v>210</v>
       </c>
       <c r="D101" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E101" t="n">
         <v>210</v>
       </c>
       <c r="F101" t="n">
-        <v>6910.1434</v>
+        <v>17305.0062</v>
       </c>
       <c r="G101" t="n">
-        <v>223.85</v>
+        <v>223.9666666666667</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,10 +3313,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>211</v>
+      </c>
+      <c r="C102" t="n">
         <v>210</v>
-      </c>
-      <c r="C102" t="n">
-        <v>212</v>
       </c>
       <c r="D102" t="n">
         <v>212</v>
@@ -3020,12 +3325,15 @@
         <v>210</v>
       </c>
       <c r="F102" t="n">
-        <v>14232.2708</v>
+        <v>6910.1434</v>
       </c>
       <c r="G102" t="n">
-        <v>223.75</v>
+        <v>223.85</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C103" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D103" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E103" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F103" t="n">
-        <v>5755.7094</v>
+        <v>14232.2708</v>
       </c>
       <c r="G103" t="n">
-        <v>223.7666666666667</v>
+        <v>223.75</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,10 +3371,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>213</v>
+      </c>
+      <c r="C104" t="n">
         <v>218</v>
-      </c>
-      <c r="C104" t="n">
-        <v>212</v>
       </c>
       <c r="D104" t="n">
         <v>218</v>
@@ -3072,12 +3383,15 @@
         <v>212</v>
       </c>
       <c r="F104" t="n">
-        <v>2729.5008</v>
+        <v>5755.7094</v>
       </c>
       <c r="G104" t="n">
-        <v>223.6333333333333</v>
+        <v>223.7666666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C105" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D105" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E105" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F105" t="n">
-        <v>9662.454957989999</v>
+        <v>2729.5008</v>
       </c>
       <c r="G105" t="n">
-        <v>223.6166666666667</v>
+        <v>223.6333333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C106" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D106" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E106" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F106" t="n">
-        <v>1.0221</v>
+        <v>9662.454957989999</v>
       </c>
       <c r="G106" t="n">
-        <v>223.5666666666667</v>
+        <v>223.6166666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,21 +3461,24 @@
         <v>214</v>
       </c>
       <c r="C107" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D107" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E107" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F107" t="n">
-        <v>54.2152</v>
+        <v>1.0221</v>
       </c>
       <c r="G107" t="n">
-        <v>223.4833333333333</v>
+        <v>223.5666666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C108" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D108" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E108" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="n">
-        <v>5319.6363</v>
+        <v>54.2152</v>
       </c>
       <c r="G108" t="n">
-        <v>223.3833333333333</v>
+        <v>223.4833333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C109" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D109" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E109" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F109" t="n">
-        <v>3055.175</v>
+        <v>5319.6363</v>
       </c>
       <c r="G109" t="n">
-        <v>223.25</v>
+        <v>223.3833333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C110" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D110" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E110" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="n">
-        <v>925.2696999999999</v>
+        <v>3055.175</v>
       </c>
       <c r="G110" t="n">
-        <v>223.0333333333333</v>
+        <v>223.25</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C111" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D111" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E111" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>925.2696999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>222.8333333333333</v>
+        <v>223.0333333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C112" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D112" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E112" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F112" t="n">
         <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>222.5833333333333</v>
+        <v>222.8333333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>215</v>
       </c>
       <c r="F113" t="n">
-        <v>1.0288</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>222.25</v>
+        <v>222.5833333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C114" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D114" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E114" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F114" t="n">
-        <v>74.21339999999999</v>
+        <v>1.0288</v>
       </c>
       <c r="G114" t="n">
-        <v>221.8666666666667</v>
+        <v>222.25</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>214</v>
+      </c>
+      <c r="C115" t="n">
         <v>212</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>214</v>
-      </c>
-      <c r="D115" t="n">
-        <v>215</v>
       </c>
       <c r="E115" t="n">
         <v>212</v>
       </c>
       <c r="F115" t="n">
-        <v>1461.3488</v>
+        <v>74.21339999999999</v>
       </c>
       <c r="G115" t="n">
-        <v>221.5333333333333</v>
+        <v>221.8666666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,7 +3719,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C116" t="n">
         <v>214</v>
@@ -3381,15 +3728,18 @@
         <v>215</v>
       </c>
       <c r="E116" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F116" t="n">
-        <v>618.0277</v>
+        <v>1461.3488</v>
       </c>
       <c r="G116" t="n">
-        <v>221.2666666666667</v>
+        <v>221.5333333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,21 +3751,24 @@
         <v>213</v>
       </c>
       <c r="C117" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D117" t="n">
+        <v>215</v>
+      </c>
+      <c r="E117" t="n">
         <v>213</v>
       </c>
-      <c r="E117" t="n">
-        <v>212</v>
-      </c>
       <c r="F117" t="n">
-        <v>9367.477800000001</v>
+        <v>618.0277</v>
       </c>
       <c r="G117" t="n">
-        <v>221.0166666666667</v>
+        <v>221.2666666666667</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3427,21 +3780,24 @@
         <v>213</v>
       </c>
       <c r="C118" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D118" t="n">
         <v>213</v>
       </c>
       <c r="E118" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>9367.477800000001</v>
       </c>
       <c r="G118" t="n">
-        <v>220.7666666666667</v>
+        <v>221.0166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C119" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D119" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E119" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F119" t="n">
-        <v>923.1862</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>220.5166666666667</v>
+        <v>220.7666666666667</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>211</v>
+      </c>
+      <c r="C120" t="n">
         <v>210</v>
       </c>
-      <c r="C120" t="n">
-        <v>209</v>
-      </c>
       <c r="D120" t="n">
+        <v>211</v>
+      </c>
+      <c r="E120" t="n">
         <v>210</v>
       </c>
-      <c r="E120" t="n">
-        <v>209</v>
-      </c>
       <c r="F120" t="n">
-        <v>10433.8149</v>
+        <v>923.1862</v>
       </c>
       <c r="G120" t="n">
-        <v>220.2166666666667</v>
+        <v>220.5166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,21 +3867,24 @@
         <v>210</v>
       </c>
       <c r="C121" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D121" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E121" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F121" t="n">
-        <v>11502.6871</v>
+        <v>10433.8149</v>
       </c>
       <c r="G121" t="n">
-        <v>219.9666666666667</v>
+        <v>220.2166666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,7 +3893,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C122" t="n">
         <v>212</v>
@@ -3537,15 +3902,18 @@
         <v>212</v>
       </c>
       <c r="E122" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F122" t="n">
-        <v>5</v>
+        <v>11502.6871</v>
       </c>
       <c r="G122" t="n">
-        <v>219.75</v>
+        <v>219.9666666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>212</v>
       </c>
       <c r="F123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>219.5333333333333</v>
+        <v>219.75</v>
       </c>
       <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C124" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D124" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E124" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F124" t="n">
-        <v>4.9875</v>
+        <v>4</v>
       </c>
       <c r="G124" t="n">
-        <v>219.25</v>
+        <v>219.5333333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>208</v>
       </c>
       <c r="F125" t="n">
-        <v>2881.1575</v>
+        <v>4.9875</v>
       </c>
       <c r="G125" t="n">
-        <v>218.9333333333333</v>
+        <v>219.25</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C126" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D126" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E126" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F126" t="n">
-        <v>106.4126</v>
+        <v>2881.1575</v>
       </c>
       <c r="G126" t="n">
-        <v>218.6333333333333</v>
+        <v>218.9333333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,7 +4038,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C127" t="n">
         <v>212</v>
@@ -3667,15 +4047,18 @@
         <v>212</v>
       </c>
       <c r="E127" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F127" t="n">
-        <v>76.0282</v>
+        <v>106.4126</v>
       </c>
       <c r="G127" t="n">
-        <v>218.3333333333333</v>
+        <v>218.6333333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>212</v>
       </c>
       <c r="F128" t="n">
-        <v>10.9764</v>
+        <v>76.0282</v>
       </c>
       <c r="G128" t="n">
-        <v>218.0666666666667</v>
+        <v>218.3333333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3713,21 +4099,24 @@
         <v>212</v>
       </c>
       <c r="C129" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D129" t="n">
         <v>212</v>
       </c>
       <c r="E129" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F129" t="n">
-        <v>7801.7818</v>
+        <v>10.9764</v>
       </c>
       <c r="G129" t="n">
-        <v>217.7333333333333</v>
+        <v>218.0666666666667</v>
       </c>
       <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C130" t="n">
         <v>209</v>
       </c>
       <c r="D130" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E130" t="n">
         <v>209</v>
       </c>
       <c r="F130" t="n">
-        <v>4925.8114</v>
+        <v>7801.7818</v>
       </c>
       <c r="G130" t="n">
-        <v>217.4166666666667</v>
+        <v>217.7333333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C131" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D131" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E131" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F131" t="n">
-        <v>625.0765</v>
+        <v>4925.8114</v>
       </c>
       <c r="G131" t="n">
-        <v>217.15</v>
+        <v>217.4166666666667</v>
       </c>
       <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>212</v>
+      </c>
+      <c r="C132" t="n">
         <v>213</v>
       </c>
-      <c r="C132" t="n">
-        <v>216</v>
-      </c>
       <c r="D132" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E132" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F132" t="n">
-        <v>8593.9612</v>
+        <v>625.0765</v>
       </c>
       <c r="G132" t="n">
-        <v>216.9333333333333</v>
+        <v>217.15</v>
       </c>
       <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C133" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D133" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E133" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F133" t="n">
-        <v>6927.0417</v>
+        <v>8593.9612</v>
       </c>
       <c r="G133" t="n">
-        <v>216.7166666666667</v>
+        <v>216.9333333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C134" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D134" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E134" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F134" t="n">
-        <v>2.3105</v>
+        <v>6927.0417</v>
       </c>
       <c r="G134" t="n">
-        <v>216.5</v>
+        <v>216.7166666666667</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C135" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D135" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E135" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F135" t="n">
-        <v>25379.6442</v>
+        <v>2.3105</v>
       </c>
       <c r="G135" t="n">
-        <v>216.1666666666667</v>
+        <v>216.5</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C136" t="n">
         <v>209</v>
       </c>
       <c r="D136" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E136" t="n">
         <v>209</v>
       </c>
       <c r="F136" t="n">
-        <v>16922.2976</v>
+        <v>25379.6442</v>
       </c>
       <c r="G136" t="n">
-        <v>215.8833333333333</v>
+        <v>216.1666666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,21 +4331,24 @@
         <v>209</v>
       </c>
       <c r="C137" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D137" t="n">
         <v>209</v>
       </c>
       <c r="E137" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F137" t="n">
-        <v>5059.0037</v>
+        <v>16922.2976</v>
       </c>
       <c r="G137" t="n">
-        <v>215.5833333333333</v>
+        <v>215.8833333333333</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3947,21 +4360,24 @@
         <v>209</v>
       </c>
       <c r="C138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D138" t="n">
         <v>209</v>
       </c>
       <c r="E138" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F138" t="n">
-        <v>99</v>
+        <v>5059.0037</v>
       </c>
       <c r="G138" t="n">
-        <v>215.3166666666667</v>
+        <v>215.5833333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C139" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D139" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E139" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F139" t="n">
-        <v>2138.0125</v>
+        <v>99</v>
       </c>
       <c r="G139" t="n">
-        <v>215.1666666666667</v>
+        <v>215.3166666666667</v>
       </c>
       <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C140" t="n">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D140" t="n">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E140" t="n">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F140" t="n">
-        <v>310</v>
+        <v>2138.0125</v>
       </c>
       <c r="G140" t="n">
-        <v>215</v>
+        <v>215.1666666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C141" t="n">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D141" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E141" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F141" t="n">
-        <v>18100.8368</v>
+        <v>310</v>
       </c>
       <c r="G141" t="n">
-        <v>214.7833333333333</v>
+        <v>215</v>
       </c>
       <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>209</v>
+      </c>
+      <c r="C142" t="n">
         <v>207</v>
       </c>
-      <c r="C142" t="n">
-        <v>211</v>
-      </c>
       <c r="D142" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E142" t="n">
         <v>207</v>
       </c>
       <c r="F142" t="n">
-        <v>600</v>
+        <v>18100.8368</v>
       </c>
       <c r="G142" t="n">
-        <v>214.5833333333333</v>
+        <v>214.7833333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C143" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D143" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E143" t="n">
         <v>207</v>
       </c>
       <c r="F143" t="n">
-        <v>16201.2654</v>
+        <v>600</v>
       </c>
       <c r="G143" t="n">
-        <v>214.3333333333333</v>
+        <v>214.5833333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C144" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D144" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E144" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F144" t="n">
-        <v>2.1009</v>
+        <v>16201.2654</v>
       </c>
       <c r="G144" t="n">
-        <v>214.1166666666667</v>
+        <v>214.3333333333333</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C145" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D145" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E145" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F145" t="n">
-        <v>2054.9224</v>
+        <v>2.1009</v>
       </c>
       <c r="G145" t="n">
-        <v>213.9333333333333</v>
+        <v>214.1166666666667</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,7 +4589,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C146" t="n">
         <v>213</v>
@@ -4161,15 +4598,18 @@
         <v>213</v>
       </c>
       <c r="E146" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F146" t="n">
-        <v>7042.3051</v>
+        <v>2054.9224</v>
       </c>
       <c r="G146" t="n">
-        <v>213.7333333333333</v>
+        <v>213.9333333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,7 +4618,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C147" t="n">
         <v>213</v>
@@ -4187,15 +4627,18 @@
         <v>213</v>
       </c>
       <c r="E147" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>7042.3051</v>
       </c>
       <c r="G147" t="n">
-        <v>213.55</v>
+        <v>213.7333333333333</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>213</v>
       </c>
       <c r="F148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G148" t="n">
-        <v>213.3833333333333</v>
+        <v>213.55</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C149" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D149" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E149" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F149" t="n">
-        <v>946.7625</v>
+        <v>3</v>
       </c>
       <c r="G149" t="n">
-        <v>213.1666666666667</v>
+        <v>213.3833333333333</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C150" t="n">
         <v>208</v>
       </c>
       <c r="D150" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E150" t="n">
         <v>208</v>
       </c>
       <c r="F150" t="n">
-        <v>61.3427</v>
+        <v>946.7625</v>
       </c>
       <c r="G150" t="n">
-        <v>212.95</v>
+        <v>213.1666666666667</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C151" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D151" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E151" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F151" t="n">
-        <v>1889.1949</v>
+        <v>61.3427</v>
       </c>
       <c r="G151" t="n">
-        <v>212.8166666666667</v>
+        <v>212.95</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C152" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D152" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E152" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F152" t="n">
-        <v>27.3707</v>
+        <v>1889.1949</v>
       </c>
       <c r="G152" t="n">
-        <v>212.7</v>
+        <v>212.8166666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4337,21 +4795,24 @@
         <v>211</v>
       </c>
       <c r="C153" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D153" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E153" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F153" t="n">
-        <v>2492.8183</v>
+        <v>27.3707</v>
       </c>
       <c r="G153" t="n">
-        <v>212.5833333333333</v>
+        <v>212.7</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,7 +4821,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C154" t="n">
         <v>212</v>
@@ -4369,15 +4830,18 @@
         <v>212</v>
       </c>
       <c r="E154" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F154" t="n">
-        <v>36.0959</v>
+        <v>2492.8183</v>
       </c>
       <c r="G154" t="n">
-        <v>212.4666666666667</v>
+        <v>212.5833333333333</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>212</v>
       </c>
       <c r="F155" t="n">
-        <v>1113.9314</v>
+        <v>36.0959</v>
       </c>
       <c r="G155" t="n">
-        <v>212.3666666666667</v>
+        <v>212.4666666666667</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4415,21 +4882,24 @@
         <v>212</v>
       </c>
       <c r="C156" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D156" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E156" t="n">
         <v>212</v>
       </c>
       <c r="F156" t="n">
-        <v>4316.33533239</v>
+        <v>1113.9314</v>
       </c>
       <c r="G156" t="n">
-        <v>212.2666666666667</v>
+        <v>212.3666666666667</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,7 +4908,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C157" t="n">
         <v>213</v>
@@ -4447,15 +4917,18 @@
         <v>213</v>
       </c>
       <c r="E157" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F157" t="n">
-        <v>9368.4539</v>
+        <v>4316.33533239</v>
       </c>
       <c r="G157" t="n">
-        <v>212.2</v>
+        <v>212.2666666666667</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>213</v>
       </c>
       <c r="F158" t="n">
-        <v>40.8559</v>
+        <v>9368.4539</v>
       </c>
       <c r="G158" t="n">
-        <v>212.1</v>
+        <v>212.2</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4493,21 +4969,24 @@
         <v>213</v>
       </c>
       <c r="C159" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D159" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E159" t="n">
         <v>213</v>
       </c>
       <c r="F159" t="n">
-        <v>4613.9077</v>
+        <v>40.8559</v>
       </c>
       <c r="G159" t="n">
-        <v>212.1166666666667</v>
+        <v>212.1</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C160" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D160" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E160" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F160" t="n">
-        <v>446.8112</v>
+        <v>4613.9077</v>
       </c>
       <c r="G160" t="n">
-        <v>212.2</v>
+        <v>212.1166666666667</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4548,18 +5030,21 @@
         <v>215</v>
       </c>
       <c r="D161" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E161" t="n">
         <v>215</v>
       </c>
       <c r="F161" t="n">
-        <v>2658.1621</v>
+        <v>446.8112</v>
       </c>
       <c r="G161" t="n">
-        <v>212.2833333333333</v>
+        <v>212.2</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4574,18 +5059,21 @@
         <v>215</v>
       </c>
       <c r="D162" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E162" t="n">
         <v>215</v>
       </c>
       <c r="F162" t="n">
-        <v>24.051</v>
+        <v>2658.1621</v>
       </c>
       <c r="G162" t="n">
-        <v>212.3333333333333</v>
+        <v>212.2833333333333</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4597,21 +5085,24 @@
         <v>215</v>
       </c>
       <c r="C163" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D163" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E163" t="n">
         <v>215</v>
       </c>
       <c r="F163" t="n">
-        <v>1749.67852842</v>
+        <v>24.051</v>
       </c>
       <c r="G163" t="n">
-        <v>212.3</v>
+        <v>212.3333333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>215</v>
+      </c>
+      <c r="C164" t="n">
         <v>216</v>
       </c>
-      <c r="C164" t="n">
-        <v>215</v>
-      </c>
       <c r="D164" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E164" t="n">
         <v>215</v>
       </c>
       <c r="F164" t="n">
-        <v>115.237</v>
+        <v>1749.67852842</v>
       </c>
       <c r="G164" t="n">
-        <v>212.35</v>
+        <v>212.3</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,10 +5140,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>216</v>
+      </c>
+      <c r="C165" t="n">
         <v>215</v>
-      </c>
-      <c r="C165" t="n">
-        <v>216</v>
       </c>
       <c r="D165" t="n">
         <v>216</v>
@@ -4658,12 +5152,15 @@
         <v>215</v>
       </c>
       <c r="F165" t="n">
-        <v>113</v>
+        <v>115.237</v>
       </c>
       <c r="G165" t="n">
-        <v>212.3</v>
+        <v>212.35</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C166" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D166" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E166" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F166" t="n">
-        <v>307.0612</v>
+        <v>113</v>
       </c>
       <c r="G166" t="n">
-        <v>212.2833333333333</v>
+        <v>212.3</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,7 +5198,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C167" t="n">
         <v>213</v>
@@ -4707,15 +5207,18 @@
         <v>213</v>
       </c>
       <c r="E167" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F167" t="n">
-        <v>306.3634</v>
+        <v>307.0612</v>
       </c>
       <c r="G167" t="n">
         <v>212.2833333333333</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>211</v>
+      </c>
+      <c r="C168" t="n">
         <v>213</v>
       </c>
-      <c r="C168" t="n">
-        <v>214</v>
-      </c>
       <c r="D168" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E168" t="n">
         <v>211</v>
       </c>
       <c r="F168" t="n">
-        <v>928.9357</v>
+        <v>306.3634</v>
       </c>
       <c r="G168" t="n">
-        <v>212.2666666666667</v>
+        <v>212.2833333333333</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,10 +5256,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>213</v>
+      </c>
+      <c r="C169" t="n">
         <v>214</v>
-      </c>
-      <c r="C169" t="n">
-        <v>211</v>
       </c>
       <c r="D169" t="n">
         <v>214</v>
@@ -4762,12 +5268,15 @@
         <v>211</v>
       </c>
       <c r="F169" t="n">
-        <v>977.8001</v>
+        <v>928.9357</v>
       </c>
       <c r="G169" t="n">
-        <v>212.1833333333333</v>
+        <v>212.2666666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>214</v>
+      </c>
+      <c r="C170" t="n">
         <v>211</v>
       </c>
-      <c r="C170" t="n">
-        <v>213</v>
-      </c>
       <c r="D170" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E170" t="n">
         <v>211</v>
       </c>
       <c r="F170" t="n">
-        <v>770.559</v>
+        <v>977.8001</v>
       </c>
       <c r="G170" t="n">
-        <v>212.15</v>
+        <v>212.1833333333333</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C171" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D171" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E171" t="n">
         <v>211</v>
       </c>
       <c r="F171" t="n">
-        <v>2672.6721</v>
+        <v>770.559</v>
       </c>
       <c r="G171" t="n">
-        <v>212.0833333333333</v>
+        <v>212.15</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4831,21 +5346,24 @@
         <v>212</v>
       </c>
       <c r="C172" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D172" t="n">
         <v>214</v>
       </c>
       <c r="E172" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F172" t="n">
-        <v>40.0587</v>
+        <v>2672.6721</v>
       </c>
       <c r="G172" t="n">
-        <v>212.05</v>
+        <v>212.0833333333333</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C173" t="n">
         <v>213</v>
       </c>
       <c r="D173" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E173" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F173" t="n">
-        <v>60.7379</v>
+        <v>40.0587</v>
       </c>
       <c r="G173" t="n">
-        <v>212.0166666666667</v>
+        <v>212.05</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4883,21 +5404,24 @@
         <v>213</v>
       </c>
       <c r="C174" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D174" t="n">
         <v>213</v>
       </c>
       <c r="E174" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F174" t="n">
-        <v>163.1257</v>
+        <v>60.7379</v>
       </c>
       <c r="G174" t="n">
-        <v>212</v>
+        <v>212.0166666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,10 +5430,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>213</v>
+      </c>
+      <c r="C175" t="n">
         <v>211</v>
-      </c>
-      <c r="C175" t="n">
-        <v>213</v>
       </c>
       <c r="D175" t="n">
         <v>213</v>
@@ -4918,12 +5442,15 @@
         <v>211</v>
       </c>
       <c r="F175" t="n">
-        <v>4229.3739</v>
+        <v>163.1257</v>
       </c>
       <c r="G175" t="n">
-        <v>211.9833333333333</v>
+        <v>212</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C176" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D176" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E176" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F176" t="n">
-        <v>30.4872</v>
+        <v>4229.3739</v>
       </c>
       <c r="G176" t="n">
-        <v>211.95</v>
+        <v>211.9833333333333</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C177" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D177" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E177" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F177" t="n">
-        <v>2194.1807</v>
+        <v>30.4872</v>
       </c>
       <c r="G177" t="n">
-        <v>211.9166666666667</v>
+        <v>211.95</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4987,21 +5520,24 @@
         <v>211</v>
       </c>
       <c r="C178" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D178" t="n">
         <v>211</v>
       </c>
       <c r="E178" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F178" t="n">
-        <v>10949.2587</v>
+        <v>2194.1807</v>
       </c>
       <c r="G178" t="n">
-        <v>211.85</v>
+        <v>211.9166666666667</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>211</v>
+      </c>
+      <c r="C179" t="n">
         <v>209</v>
       </c>
-      <c r="C179" t="n">
-        <v>212</v>
-      </c>
       <c r="D179" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E179" t="n">
         <v>209</v>
       </c>
       <c r="F179" t="n">
-        <v>5413.7691</v>
+        <v>10949.2587</v>
       </c>
       <c r="G179" t="n">
-        <v>211.8833333333333</v>
+        <v>211.85</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>209</v>
+      </c>
+      <c r="C180" t="n">
         <v>212</v>
-      </c>
-      <c r="C180" t="n">
-        <v>210</v>
       </c>
       <c r="D180" t="n">
         <v>212</v>
       </c>
       <c r="E180" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F180" t="n">
-        <v>1911.3393</v>
+        <v>5413.7691</v>
       </c>
       <c r="G180" t="n">
-        <v>211.9</v>
+        <v>211.8833333333333</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5065,21 +5607,24 @@
         <v>212</v>
       </c>
       <c r="C181" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D181" t="n">
         <v>212</v>
       </c>
       <c r="E181" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F181" t="n">
-        <v>13</v>
+        <v>1911.3393</v>
       </c>
       <c r="G181" t="n">
         <v>211.9</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C182" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D182" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E182" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F182" t="n">
-        <v>777.2532</v>
+        <v>13</v>
       </c>
       <c r="G182" t="n">
-        <v>211.8666666666667</v>
+        <v>211.9</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,7 +5662,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C183" t="n">
         <v>210</v>
@@ -5123,15 +5671,18 @@
         <v>210</v>
       </c>
       <c r="E183" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F183" t="n">
-        <v>24775.9287</v>
+        <v>777.2532</v>
       </c>
       <c r="G183" t="n">
-        <v>211.8333333333333</v>
+        <v>211.8666666666667</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,7 +5691,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C184" t="n">
         <v>210</v>
@@ -5152,12 +5703,15 @@
         <v>207</v>
       </c>
       <c r="F184" t="n">
-        <v>687.8719</v>
+        <v>24775.9287</v>
       </c>
       <c r="G184" t="n">
-        <v>211.8666666666667</v>
+        <v>211.8333333333333</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C185" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D185" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E185" t="n">
         <v>207</v>
       </c>
       <c r="F185" t="n">
-        <v>1702.1195</v>
+        <v>687.8719</v>
       </c>
       <c r="G185" t="n">
-        <v>211.85</v>
+        <v>211.8666666666667</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C186" t="n">
         <v>207</v>
       </c>
       <c r="D186" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E186" t="n">
         <v>207</v>
       </c>
       <c r="F186" t="n">
-        <v>61.5555</v>
+        <v>1702.1195</v>
       </c>
       <c r="G186" t="n">
-        <v>211.7666666666667</v>
+        <v>211.85</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C187" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D187" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E187" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F187" t="n">
-        <v>7.5598</v>
+        <v>61.5555</v>
       </c>
       <c r="G187" t="n">
-        <v>211.7166666666667</v>
+        <v>211.7666666666667</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,7 +5807,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C188" t="n">
         <v>209</v>
@@ -5253,15 +5816,18 @@
         <v>209</v>
       </c>
       <c r="E188" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F188" t="n">
-        <v>7342.2253</v>
+        <v>7.5598</v>
       </c>
       <c r="G188" t="n">
-        <v>211.6666666666667</v>
+        <v>211.7166666666667</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5273,21 +5839,24 @@
         <v>207</v>
       </c>
       <c r="C189" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D189" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E189" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F189" t="n">
-        <v>5765.7996</v>
+        <v>7342.2253</v>
       </c>
       <c r="G189" t="n">
-        <v>211.6166666666667</v>
+        <v>211.6666666666667</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C190" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D190" t="n">
         <v>208</v>
       </c>
       <c r="E190" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F190" t="n">
-        <v>13</v>
+        <v>5765.7996</v>
       </c>
       <c r="G190" t="n">
-        <v>211.6</v>
+        <v>211.6166666666667</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,7 +5894,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C191" t="n">
         <v>208</v>
@@ -5331,15 +5903,18 @@
         <v>208</v>
       </c>
       <c r="E191" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F191" t="n">
-        <v>1366.9443</v>
+        <v>13</v>
       </c>
       <c r="G191" t="n">
-        <v>211.5166666666667</v>
+        <v>211.6</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,7 +5923,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C192" t="n">
         <v>208</v>
@@ -5360,12 +5935,15 @@
         <v>206</v>
       </c>
       <c r="F192" t="n">
-        <v>2819.092</v>
+        <v>1366.9443</v>
       </c>
       <c r="G192" t="n">
-        <v>211.3833333333333</v>
+        <v>211.5166666666667</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5383,15 +5961,18 @@
         <v>208</v>
       </c>
       <c r="E193" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F193" t="n">
-        <v>878.5336</v>
+        <v>2819.092</v>
       </c>
       <c r="G193" t="n">
-        <v>211.2333333333333</v>
+        <v>211.3833333333333</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C194" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D194" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E194" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F194" t="n">
-        <v>427.0737</v>
+        <v>878.5336</v>
       </c>
       <c r="G194" t="n">
-        <v>211.0666666666667</v>
+        <v>211.2333333333333</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C195" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D195" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E195" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F195" t="n">
-        <v>32323.546</v>
+        <v>427.0737</v>
       </c>
       <c r="G195" t="n">
-        <v>210.9833333333333</v>
+        <v>211.0666666666667</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C196" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D196" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E196" t="n">
         <v>204</v>
       </c>
       <c r="F196" t="n">
-        <v>7664.3078</v>
+        <v>32323.546</v>
       </c>
       <c r="G196" t="n">
-        <v>210.9166666666667</v>
+        <v>210.9833333333333</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5487,15 +6077,18 @@
         <v>205</v>
       </c>
       <c r="E197" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F197" t="n">
-        <v>4000</v>
+        <v>7664.3078</v>
       </c>
       <c r="G197" t="n">
-        <v>210.8666666666667</v>
+        <v>210.9166666666667</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C198" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D198" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E198" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F198" t="n">
-        <v>2866.0857</v>
+        <v>4000</v>
       </c>
       <c r="G198" t="n">
-        <v>210.7833333333333</v>
+        <v>210.8666666666667</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C199" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D199" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E199" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F199" t="n">
-        <v>166619.6527</v>
+        <v>2866.0857</v>
       </c>
       <c r="G199" t="n">
-        <v>210.7333333333333</v>
+        <v>210.7833333333333</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5565,15 +6164,18 @@
         <v>205</v>
       </c>
       <c r="E200" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F200" t="n">
-        <v>557914.2661</v>
+        <v>166619.6527</v>
       </c>
       <c r="G200" t="n">
-        <v>210.5833333333333</v>
+        <v>210.7333333333333</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5591,15 +6193,18 @@
         <v>205</v>
       </c>
       <c r="E201" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F201" t="n">
-        <v>1477208.6527</v>
+        <v>557914.2661</v>
       </c>
       <c r="G201" t="n">
-        <v>210.55</v>
+        <v>210.5833333333333</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C202" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D202" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E202" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F202" t="n">
-        <v>610269.7572</v>
+        <v>1477208.6527</v>
       </c>
       <c r="G202" t="n">
-        <v>210.4666666666667</v>
+        <v>210.55</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5646,12 +6254,15 @@
         <v>206</v>
       </c>
       <c r="F203" t="n">
-        <v>1280000</v>
+        <v>610269.7572</v>
       </c>
       <c r="G203" t="n">
-        <v>210.45</v>
+        <v>210.4666666666667</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5672,12 +6283,15 @@
         <v>206</v>
       </c>
       <c r="F204" t="n">
-        <v>1131073.8164</v>
+        <v>1280000</v>
       </c>
       <c r="G204" t="n">
-        <v>210.3666666666667</v>
+        <v>210.45</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,12 +6312,15 @@
         <v>206</v>
       </c>
       <c r="F205" t="n">
-        <v>1290000</v>
+        <v>1131073.8164</v>
       </c>
       <c r="G205" t="n">
-        <v>210.25</v>
+        <v>210.3666666666667</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5724,12 +6341,15 @@
         <v>206</v>
       </c>
       <c r="F206" t="n">
-        <v>900967.3088</v>
+        <v>1290000</v>
       </c>
       <c r="G206" t="n">
-        <v>210.1333333333333</v>
+        <v>210.25</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,12 +6370,15 @@
         <v>206</v>
       </c>
       <c r="F207" t="n">
-        <v>636707</v>
+        <v>900967.3088</v>
       </c>
       <c r="G207" t="n">
-        <v>210.0166666666667</v>
+        <v>210.1333333333333</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5773,15 +6396,18 @@
         <v>206</v>
       </c>
       <c r="E208" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F208" t="n">
-        <v>857030.6529</v>
+        <v>636707</v>
       </c>
       <c r="G208" t="n">
-        <v>209.9</v>
+        <v>210.0166666666667</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5799,15 +6425,18 @@
         <v>206</v>
       </c>
       <c r="E209" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F209" t="n">
-        <v>857740</v>
+        <v>857030.6529</v>
       </c>
       <c r="G209" t="n">
-        <v>209.8666666666667</v>
+        <v>209.9</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>206</v>
       </c>
       <c r="F210" t="n">
-        <v>847843</v>
+        <v>857740</v>
       </c>
       <c r="G210" t="n">
-        <v>209.8333333333333</v>
+        <v>209.8666666666667</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5848,18 +6480,21 @@
         <v>206</v>
       </c>
       <c r="D211" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E211" t="n">
         <v>206</v>
       </c>
       <c r="F211" t="n">
-        <v>849604.4036</v>
+        <v>847843</v>
       </c>
       <c r="G211" t="n">
-        <v>209.7333333333333</v>
+        <v>209.8333333333333</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5874,18 +6509,21 @@
         <v>206</v>
       </c>
       <c r="D212" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E212" t="n">
         <v>206</v>
       </c>
       <c r="F212" t="n">
-        <v>626502.5326</v>
+        <v>849604.4036</v>
       </c>
       <c r="G212" t="n">
-        <v>209.65</v>
+        <v>209.7333333333333</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5900,18 +6538,21 @@
         <v>206</v>
       </c>
       <c r="D213" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E213" t="n">
         <v>206</v>
       </c>
       <c r="F213" t="n">
-        <v>783957.8316</v>
+        <v>626502.5326</v>
       </c>
       <c r="G213" t="n">
-        <v>209.55</v>
+        <v>209.65</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C214" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D214" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E214" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F214" t="n">
-        <v>149912.4681</v>
+        <v>783957.8316</v>
       </c>
       <c r="G214" t="n">
-        <v>209.4333333333333</v>
+        <v>209.55</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5949,21 +6593,24 @@
         <v>205</v>
       </c>
       <c r="C215" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D215" t="n">
         <v>205</v>
       </c>
       <c r="E215" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F215" t="n">
-        <v>6373.9222</v>
+        <v>149912.4681</v>
       </c>
       <c r="G215" t="n">
-        <v>209.3</v>
+        <v>209.4333333333333</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5975,21 +6622,24 @@
         <v>205</v>
       </c>
       <c r="C216" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D216" t="n">
         <v>205</v>
       </c>
       <c r="E216" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F216" t="n">
-        <v>108.4783</v>
+        <v>6373.9222</v>
       </c>
       <c r="G216" t="n">
-        <v>209.1666666666667</v>
+        <v>209.3</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C217" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D217" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E217" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F217" t="n">
-        <v>997.5</v>
+        <v>108.4783</v>
       </c>
       <c r="G217" t="n">
-        <v>209</v>
+        <v>209.1666666666667</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C218" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D218" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E218" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F218" t="n">
-        <v>1</v>
+        <v>997.5</v>
       </c>
       <c r="G218" t="n">
-        <v>208.8666666666667</v>
+        <v>209</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C219" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D219" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E219" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F219" t="n">
-        <v>4002.5</v>
+        <v>1</v>
       </c>
       <c r="G219" t="n">
-        <v>208.65</v>
+        <v>208.8666666666667</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C220" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D220" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E220" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F220" t="n">
-        <v>2883.5314</v>
+        <v>4002.5</v>
       </c>
       <c r="G220" t="n">
-        <v>208.4333333333333</v>
+        <v>208.65</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C221" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D221" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E221" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F221" t="n">
-        <v>50</v>
+        <v>2883.5314</v>
       </c>
       <c r="G221" t="n">
-        <v>208.25</v>
+        <v>208.4333333333333</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6140,12 +6805,15 @@
         <v>204</v>
       </c>
       <c r="F222" t="n">
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="G222" t="n">
-        <v>208.0666666666667</v>
+        <v>208.25</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>204</v>
       </c>
       <c r="F223" t="n">
-        <v>15972.4398</v>
+        <v>7.5</v>
       </c>
       <c r="G223" t="n">
-        <v>207.8666666666667</v>
+        <v>208.0666666666667</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C224" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D224" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E224" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F224" t="n">
-        <v>1</v>
+        <v>15972.4398</v>
       </c>
       <c r="G224" t="n">
-        <v>207.7333333333333</v>
+        <v>207.8666666666667</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6206,24 +6880,27 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C225" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D225" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E225" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F225" t="n">
-        <v>4280.5021</v>
+        <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>207.5333333333333</v>
+        <v>207.7333333333333</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C226" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D226" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E226" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F226" t="n">
-        <v>38.8067</v>
+        <v>4280.5021</v>
       </c>
       <c r="G226" t="n">
-        <v>207.4333333333333</v>
+        <v>207.5333333333333</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C227" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D227" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E227" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F227" t="n">
-        <v>190.2055</v>
+        <v>38.8067</v>
       </c>
       <c r="G227" t="n">
-        <v>207.3</v>
+        <v>207.4333333333333</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6296,12 +6979,15 @@
         <v>205</v>
       </c>
       <c r="F228" t="n">
-        <v>533.062</v>
+        <v>190.2055</v>
       </c>
       <c r="G228" t="n">
-        <v>207.15</v>
+        <v>207.3</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6322,12 +7008,15 @@
         <v>205</v>
       </c>
       <c r="F229" t="n">
-        <v>2030.6711</v>
+        <v>533.062</v>
       </c>
       <c r="G229" t="n">
-        <v>207.05</v>
+        <v>207.15</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C230" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D230" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E230" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F230" t="n">
-        <v>80224.71859999999</v>
+        <v>2030.6711</v>
       </c>
       <c r="G230" t="n">
-        <v>206.85</v>
+        <v>207.05</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C231" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D231" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E231" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F231" t="n">
-        <v>1</v>
+        <v>80224.71859999999</v>
       </c>
       <c r="G231" t="n">
-        <v>206.75</v>
+        <v>206.85</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C232" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D232" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E232" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F232" t="n">
-        <v>316.0436</v>
+        <v>1</v>
       </c>
       <c r="G232" t="n">
-        <v>206.6166666666667</v>
+        <v>206.75</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6426,12 +7124,15 @@
         <v>205</v>
       </c>
       <c r="F233" t="n">
-        <v>2610.3073</v>
+        <v>316.0436</v>
       </c>
       <c r="G233" t="n">
-        <v>206.4833333333333</v>
+        <v>206.6166666666667</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6452,12 +7153,15 @@
         <v>205</v>
       </c>
       <c r="F234" t="n">
-        <v>1168.9784</v>
+        <v>2610.3073</v>
       </c>
       <c r="G234" t="n">
-        <v>206.3833333333333</v>
+        <v>206.4833333333333</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C235" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D235" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E235" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F235" t="n">
-        <v>558.99</v>
+        <v>1168.9784</v>
       </c>
       <c r="G235" t="n">
-        <v>206.2666666666667</v>
+        <v>206.3833333333333</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C236" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D236" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E236" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F236" t="n">
-        <v>1</v>
+        <v>558.99</v>
       </c>
       <c r="G236" t="n">
-        <v>206.1833333333333</v>
+        <v>206.2666666666667</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6521,21 +7231,24 @@
         <v>207</v>
       </c>
       <c r="C237" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D237" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E237" t="n">
         <v>207</v>
       </c>
       <c r="F237" t="n">
-        <v>4920.944</v>
+        <v>1</v>
       </c>
       <c r="G237" t="n">
-        <v>206.15</v>
+        <v>206.1833333333333</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,7 +7257,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C238" t="n">
         <v>208</v>
@@ -6553,15 +7266,18 @@
         <v>208</v>
       </c>
       <c r="E238" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F238" t="n">
-        <v>888.7619</v>
+        <v>4920.944</v>
       </c>
       <c r="G238" t="n">
-        <v>206.1333333333333</v>
+        <v>206.15</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C239" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D239" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E239" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F239" t="n">
-        <v>552.2075</v>
+        <v>888.7619</v>
       </c>
       <c r="G239" t="n">
         <v>206.1333333333333</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C240" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D240" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E240" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F240" t="n">
-        <v>1</v>
+        <v>552.2075</v>
       </c>
       <c r="G240" t="n">
-        <v>206.2</v>
+        <v>206.1333333333333</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C241" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D241" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E241" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F241" t="n">
-        <v>2158</v>
+        <v>1</v>
       </c>
       <c r="G241" t="n">
         <v>206.2</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6651,21 +7376,24 @@
         <v>211</v>
       </c>
       <c r="C242" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D242" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E242" t="n">
         <v>211</v>
       </c>
       <c r="F242" t="n">
-        <v>3693</v>
+        <v>2158</v>
       </c>
       <c r="G242" t="n">
-        <v>206.2166666666667</v>
+        <v>206.2</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6686,12 +7414,15 @@
         <v>211</v>
       </c>
       <c r="F243" t="n">
-        <v>289.2654</v>
+        <v>3693</v>
       </c>
       <c r="G243" t="n">
-        <v>206.2333333333333</v>
+        <v>206.2166666666667</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C244" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D244" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E244" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F244" t="n">
-        <v>7.9571</v>
+        <v>289.2654</v>
       </c>
       <c r="G244" t="n">
         <v>206.2333333333333</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C245" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D245" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E245" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F245" t="n">
-        <v>2171.5432</v>
+        <v>7.9571</v>
       </c>
       <c r="G245" t="n">
         <v>206.2333333333333</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C246" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D246" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E246" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F246" t="n">
-        <v>1</v>
+        <v>2171.5432</v>
       </c>
       <c r="G246" t="n">
-        <v>206.3</v>
+        <v>206.2333333333333</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6781,21 +7521,24 @@
         <v>211</v>
       </c>
       <c r="C247" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D247" t="n">
         <v>211</v>
       </c>
       <c r="E247" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F247" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
-        <v>206.3166666666667</v>
+        <v>206.3</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
+        <v>211</v>
+      </c>
+      <c r="C248" t="n">
         <v>210</v>
       </c>
-      <c r="C248" t="n">
-        <v>209</v>
-      </c>
       <c r="D248" t="n">
+        <v>211</v>
+      </c>
+      <c r="E248" t="n">
         <v>210</v>
       </c>
-      <c r="E248" t="n">
-        <v>209</v>
-      </c>
       <c r="F248" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G248" t="n">
         <v>206.3166666666667</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C249" t="n">
         <v>209</v>
       </c>
       <c r="D249" t="n">
+        <v>210</v>
+      </c>
+      <c r="E249" t="n">
         <v>209</v>
       </c>
-      <c r="E249" t="n">
-        <v>207</v>
-      </c>
       <c r="F249" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G249" t="n">
-        <v>206.3666666666667</v>
+        <v>206.3166666666667</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6859,21 +7608,24 @@
         <v>207</v>
       </c>
       <c r="C250" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D250" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E250" t="n">
         <v>207</v>
       </c>
       <c r="F250" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G250" t="n">
-        <v>206.35</v>
+        <v>206.3666666666667</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C251" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D251" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E251" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G251" t="n">
-        <v>206.3666666666667</v>
+        <v>206.35</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C252" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D252" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E252" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F252" t="n">
-        <v>389.0855</v>
+        <v>1</v>
       </c>
       <c r="G252" t="n">
-        <v>206.35</v>
+        <v>206.3666666666667</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6937,21 +7695,24 @@
         <v>208</v>
       </c>
       <c r="C253" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D253" t="n">
         <v>208</v>
       </c>
       <c r="E253" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F253" t="n">
-        <v>1</v>
+        <v>389.0855</v>
       </c>
       <c r="G253" t="n">
         <v>206.35</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,544 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C254" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D254" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E254" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F254" t="n">
-        <v>553.1396999999999</v>
+        <v>1</v>
       </c>
       <c r="G254" t="n">
-        <v>206.3666666666667</v>
+        <v>206.35</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>208</v>
-      </c>
-      <c r="C255" t="n">
-        <v>208</v>
-      </c>
-      <c r="D255" t="n">
-        <v>208</v>
-      </c>
-      <c r="E255" t="n">
-        <v>208</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1</v>
-      </c>
-      <c r="G255" t="n">
-        <v>206.4333333333333</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>207</v>
-      </c>
-      <c r="C256" t="n">
-        <v>207</v>
-      </c>
-      <c r="D256" t="n">
-        <v>207</v>
-      </c>
-      <c r="E256" t="n">
-        <v>207</v>
-      </c>
-      <c r="F256" t="n">
-        <v>2</v>
-      </c>
-      <c r="G256" t="n">
-        <v>206.4666666666667</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>211</v>
-      </c>
-      <c r="C257" t="n">
-        <v>211</v>
-      </c>
-      <c r="D257" t="n">
-        <v>211</v>
-      </c>
-      <c r="E257" t="n">
-        <v>211</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1</v>
-      </c>
-      <c r="G257" t="n">
-        <v>206.5666666666667</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>211</v>
-      </c>
-      <c r="C258" t="n">
-        <v>211</v>
-      </c>
-      <c r="D258" t="n">
-        <v>211</v>
-      </c>
-      <c r="E258" t="n">
-        <v>211</v>
-      </c>
-      <c r="F258" t="n">
-        <v>1</v>
-      </c>
-      <c r="G258" t="n">
-        <v>206.6833333333333</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>208</v>
-      </c>
-      <c r="C259" t="n">
-        <v>205</v>
-      </c>
-      <c r="D259" t="n">
-        <v>208</v>
-      </c>
-      <c r="E259" t="n">
-        <v>205</v>
-      </c>
-      <c r="F259" t="n">
-        <v>12656.6427</v>
-      </c>
-      <c r="G259" t="n">
-        <v>206.6833333333333</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>209</v>
-      </c>
-      <c r="C260" t="n">
-        <v>209</v>
-      </c>
-      <c r="D260" t="n">
-        <v>209</v>
-      </c>
-      <c r="E260" t="n">
-        <v>209</v>
-      </c>
-      <c r="F260" t="n">
-        <v>2</v>
-      </c>
-      <c r="G260" t="n">
-        <v>206.75</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>206</v>
-      </c>
-      <c r="C261" t="n">
-        <v>204</v>
-      </c>
-      <c r="D261" t="n">
-        <v>206</v>
-      </c>
-      <c r="E261" t="n">
-        <v>204</v>
-      </c>
-      <c r="F261" t="n">
-        <v>7526.3366</v>
-      </c>
-      <c r="G261" t="n">
-        <v>206.7333333333333</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>205</v>
-      </c>
-      <c r="C262" t="n">
-        <v>204</v>
-      </c>
-      <c r="D262" t="n">
-        <v>205</v>
-      </c>
-      <c r="E262" t="n">
-        <v>204</v>
-      </c>
-      <c r="F262" t="n">
-        <v>876.3373</v>
-      </c>
-      <c r="G262" t="n">
-        <v>206.7</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>204</v>
-      </c>
-      <c r="C263" t="n">
-        <v>204</v>
-      </c>
-      <c r="D263" t="n">
-        <v>204</v>
-      </c>
-      <c r="E263" t="n">
-        <v>204</v>
-      </c>
-      <c r="F263" t="n">
-        <v>5742.674</v>
-      </c>
-      <c r="G263" t="n">
-        <v>206.6666666666667</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>204</v>
-      </c>
-      <c r="C264" t="n">
-        <v>201</v>
-      </c>
-      <c r="D264" t="n">
-        <v>204</v>
-      </c>
-      <c r="E264" t="n">
-        <v>201</v>
-      </c>
-      <c r="F264" t="n">
-        <v>18742.023</v>
-      </c>
-      <c r="G264" t="n">
-        <v>206.5833333333333</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>202</v>
-      </c>
-      <c r="C265" t="n">
-        <v>202</v>
-      </c>
-      <c r="D265" t="n">
-        <v>202</v>
-      </c>
-      <c r="E265" t="n">
-        <v>202</v>
-      </c>
-      <c r="F265" t="n">
-        <v>2462.6439</v>
-      </c>
-      <c r="G265" t="n">
-        <v>206.5166666666667</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>203</v>
-      </c>
-      <c r="C266" t="n">
-        <v>203</v>
-      </c>
-      <c r="D266" t="n">
-        <v>203</v>
-      </c>
-      <c r="E266" t="n">
-        <v>203</v>
-      </c>
-      <c r="F266" t="n">
-        <v>418.5812</v>
-      </c>
-      <c r="G266" t="n">
-        <v>206.4666666666667</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>203</v>
-      </c>
-      <c r="C267" t="n">
-        <v>203</v>
-      </c>
-      <c r="D267" t="n">
-        <v>203</v>
-      </c>
-      <c r="E267" t="n">
-        <v>203</v>
-      </c>
-      <c r="F267" t="n">
-        <v>16061.7935</v>
-      </c>
-      <c r="G267" t="n">
-        <v>206.4166666666667</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>206</v>
-      </c>
-      <c r="C268" t="n">
-        <v>206</v>
-      </c>
-      <c r="D268" t="n">
-        <v>206</v>
-      </c>
-      <c r="E268" t="n">
-        <v>206</v>
-      </c>
-      <c r="F268" t="n">
-        <v>2</v>
-      </c>
-      <c r="G268" t="n">
-        <v>206.4166666666667</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>206</v>
-      </c>
-      <c r="C269" t="n">
-        <v>206</v>
-      </c>
-      <c r="D269" t="n">
-        <v>206</v>
-      </c>
-      <c r="E269" t="n">
-        <v>206</v>
-      </c>
-      <c r="F269" t="n">
-        <v>806.3932</v>
-      </c>
-      <c r="G269" t="n">
-        <v>206.4166666666667</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>206</v>
-      </c>
-      <c r="C270" t="n">
-        <v>206</v>
-      </c>
-      <c r="D270" t="n">
-        <v>206</v>
-      </c>
-      <c r="E270" t="n">
-        <v>206</v>
-      </c>
-      <c r="F270" t="n">
-        <v>521.5102000000001</v>
-      </c>
-      <c r="G270" t="n">
-        <v>206.4166666666667</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>208</v>
-      </c>
-      <c r="C271" t="n">
-        <v>208</v>
-      </c>
-      <c r="D271" t="n">
-        <v>208</v>
-      </c>
-      <c r="E271" t="n">
-        <v>208</v>
-      </c>
-      <c r="F271" t="n">
-        <v>545.1923</v>
-      </c>
-      <c r="G271" t="n">
-        <v>206.45</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>208</v>
-      </c>
-      <c r="C272" t="n">
-        <v>208</v>
-      </c>
-      <c r="D272" t="n">
-        <v>208</v>
-      </c>
-      <c r="E272" t="n">
-        <v>208</v>
-      </c>
-      <c r="F272" t="n">
-        <v>11.1538</v>
-      </c>
-      <c r="G272" t="n">
-        <v>206.4833333333333</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>206</v>
-      </c>
-      <c r="C273" t="n">
-        <v>204</v>
-      </c>
-      <c r="D273" t="n">
-        <v>206</v>
-      </c>
-      <c r="E273" t="n">
-        <v>204</v>
-      </c>
-      <c r="F273" t="n">
-        <v>7286.6024</v>
-      </c>
-      <c r="G273" t="n">
-        <v>206.45</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>203</v>
-      </c>
-      <c r="C274" t="n">
-        <v>201</v>
-      </c>
-      <c r="D274" t="n">
-        <v>203</v>
-      </c>
-      <c r="E274" t="n">
-        <v>201</v>
-      </c>
-      <c r="F274" t="n">
-        <v>29603.1706</v>
-      </c>
-      <c r="G274" t="n">
-        <v>206.3833333333333</v>
-      </c>
-      <c r="H274" t="n">
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
